--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Postn-Ptk7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Postn-Ptk7.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.631631</v>
+        <v>0.5546926666666666</v>
       </c>
       <c r="H2">
-        <v>19.894893</v>
+        <v>1.664078</v>
       </c>
       <c r="I2">
-        <v>0.1124375847246059</v>
+        <v>0.01048496710804503</v>
       </c>
       <c r="J2">
-        <v>0.1124375847246059</v>
+        <v>0.01048496710804503</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.210317333333333</v>
+        <v>0.1747913333333333</v>
       </c>
       <c r="N2">
-        <v>3.630952</v>
+        <v>0.524374</v>
       </c>
       <c r="O2">
-        <v>0.3862382071332152</v>
+        <v>0.08331024341015711</v>
       </c>
       <c r="P2">
-        <v>0.3862382071332152</v>
+        <v>0.08331024341015709</v>
       </c>
       <c r="Q2">
-        <v>8.026377947570667</v>
+        <v>0.09695547079688888</v>
       </c>
       <c r="R2">
-        <v>72.237401528136</v>
+        <v>0.8725992371719999</v>
       </c>
       <c r="S2">
-        <v>0.04342769113842077</v>
+        <v>0.0008735051619187223</v>
       </c>
       <c r="T2">
-        <v>0.04342769113842077</v>
+        <v>0.0008735051619187223</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.631631</v>
+        <v>0.5546926666666666</v>
       </c>
       <c r="H3">
-        <v>19.894893</v>
+        <v>1.664078</v>
       </c>
       <c r="I3">
-        <v>0.1124375847246059</v>
+        <v>0.01048496710804503</v>
       </c>
       <c r="J3">
-        <v>0.1124375847246059</v>
+        <v>0.01048496710804503</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.132869</v>
       </c>
       <c r="O3">
-        <v>0.3332552194970434</v>
+        <v>0.4977364990677179</v>
       </c>
       <c r="P3">
-        <v>0.3332552194970434</v>
+        <v>0.4977364990677178</v>
       </c>
       <c r="Q3">
-        <v>6.925343726446334</v>
+        <v>0.5792598199757778</v>
       </c>
       <c r="R3">
-        <v>62.32809353801701</v>
+        <v>5.213338379782001</v>
       </c>
       <c r="S3">
-        <v>0.03747041197711596</v>
+        <v>0.005218750821198507</v>
       </c>
       <c r="T3">
-        <v>0.03747041197711596</v>
+        <v>0.005218750821198507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.631631</v>
+        <v>0.5546926666666666</v>
       </c>
       <c r="H4">
-        <v>19.894893</v>
+        <v>1.664078</v>
       </c>
       <c r="I4">
-        <v>0.1124375847246059</v>
+        <v>0.01048496710804503</v>
       </c>
       <c r="J4">
-        <v>0.1124375847246059</v>
+        <v>0.01048496710804503</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8789963333333333</v>
+        <v>0.8789963333333334</v>
       </c>
       <c r="N4">
         <v>2.636989</v>
       </c>
       <c r="O4">
-        <v>0.2805065733697416</v>
+        <v>0.418953257522125</v>
       </c>
       <c r="P4">
-        <v>0.2805065733697416</v>
+        <v>0.418953257522125</v>
       </c>
       <c r="Q4">
-        <v>5.829179333019666</v>
+        <v>0.4875728201268889</v>
       </c>
       <c r="R4">
-        <v>52.46261399717699</v>
+        <v>4.388155381142</v>
       </c>
       <c r="S4">
-        <v>0.03153948160906921</v>
+        <v>0.004392711124927799</v>
       </c>
       <c r="T4">
-        <v>0.0315394816090692</v>
+        <v>0.004392711124927799</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>58.55651</v>
       </c>
       <c r="I5">
-        <v>0.3309368165137774</v>
+        <v>0.3689509033301984</v>
       </c>
       <c r="J5">
-        <v>0.3309368165137774</v>
+        <v>0.3689509033301984</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.210317333333333</v>
+        <v>0.1747913333333333</v>
       </c>
       <c r="N5">
-        <v>3.630952</v>
+        <v>0.524374</v>
       </c>
       <c r="O5">
-        <v>0.3862382071332152</v>
+        <v>0.08331024341015711</v>
       </c>
       <c r="P5">
-        <v>0.3862382071332152</v>
+        <v>0.08331024341015709</v>
       </c>
       <c r="Q5">
-        <v>23.62398634416889</v>
+        <v>3.411723486082222</v>
       </c>
       <c r="R5">
-        <v>212.61587709752</v>
+        <v>30.70551137474</v>
       </c>
       <c r="S5">
-        <v>0.1278204426846552</v>
+        <v>0.03073738956283617</v>
       </c>
       <c r="T5">
-        <v>0.1278204426846552</v>
+        <v>0.03073738956283617</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>58.55651</v>
       </c>
       <c r="I6">
-        <v>0.3309368165137774</v>
+        <v>0.3689509033301984</v>
       </c>
       <c r="J6">
-        <v>0.3309368165137774</v>
+        <v>0.3689509033301984</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.132869</v>
       </c>
       <c r="O6">
-        <v>0.3332552194970434</v>
+        <v>0.4977364990677179</v>
       </c>
       <c r="P6">
-        <v>0.3332552194970434</v>
+        <v>0.4977364990677178</v>
       </c>
       <c r="Q6">
         <v>20.38331943635445</v>
@@ -818,10 +818,10 @@
         <v>183.44987492719</v>
       </c>
       <c r="S6">
-        <v>0.1102864214269517</v>
+        <v>0.183640330951445</v>
       </c>
       <c r="T6">
-        <v>0.1102864214269517</v>
+        <v>0.1836403309514449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>58.55651</v>
       </c>
       <c r="I7">
-        <v>0.3309368165137774</v>
+        <v>0.3689509033301984</v>
       </c>
       <c r="J7">
-        <v>0.3309368165137774</v>
+        <v>0.3689509033301984</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8789963333333333</v>
+        <v>0.8789963333333334</v>
       </c>
       <c r="N7">
         <v>2.636989</v>
       </c>
       <c r="O7">
-        <v>0.2805065733697416</v>
+        <v>0.418953257522125</v>
       </c>
       <c r="P7">
-        <v>0.2805065733697416</v>
+        <v>0.418953257522125</v>
       </c>
       <c r="Q7">
         <v>17.15698586093222</v>
@@ -880,10 +880,10 @@
         <v>154.41287274839</v>
       </c>
       <c r="S7">
-        <v>0.09282995240217061</v>
+        <v>0.1545731828159173</v>
       </c>
       <c r="T7">
-        <v>0.0928299524021706</v>
+        <v>0.1545731828159172</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>98.490258</v>
       </c>
       <c r="I8">
-        <v>0.5566255987616168</v>
+        <v>0.6205641295617567</v>
       </c>
       <c r="J8">
-        <v>0.5566255987616167</v>
+        <v>0.6205641295617566</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.210317333333333</v>
+        <v>0.1747913333333333</v>
       </c>
       <c r="N8">
-        <v>3.630952</v>
+        <v>0.524374</v>
       </c>
       <c r="O8">
-        <v>0.3862382071332152</v>
+        <v>0.08331024341015711</v>
       </c>
       <c r="P8">
-        <v>0.3862382071332152</v>
+        <v>0.08331024341015709</v>
       </c>
       <c r="Q8">
-        <v>39.734822140624</v>
+        <v>5.738414505388</v>
       </c>
       <c r="R8">
-        <v>357.613399265616</v>
+        <v>51.645730548492</v>
       </c>
       <c r="S8">
-        <v>0.2149900733101393</v>
+        <v>0.05169934868540222</v>
       </c>
       <c r="T8">
-        <v>0.2149900733101392</v>
+        <v>0.0516993486854022</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>98.490258</v>
       </c>
       <c r="I9">
-        <v>0.5566255987616168</v>
+        <v>0.6205641295617567</v>
       </c>
       <c r="J9">
-        <v>0.5566255987616167</v>
+        <v>0.6205641295617566</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>3.132869</v>
       </c>
       <c r="O9">
-        <v>0.3332552194970434</v>
+        <v>0.4977364990677179</v>
       </c>
       <c r="P9">
-        <v>0.3332552194970434</v>
+        <v>0.4977364990677178</v>
       </c>
       <c r="Q9">
         <v>34.284119565578</v>
@@ -1004,10 +1004,10 @@
         <v>308.557076090202</v>
       </c>
       <c r="S9">
-        <v>0.1854983860929758</v>
+        <v>0.3088774172950745</v>
       </c>
       <c r="T9">
-        <v>0.1854983860929758</v>
+        <v>0.3088774172950743</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>98.490258</v>
       </c>
       <c r="I10">
-        <v>0.5566255987616168</v>
+        <v>0.6205641295617567</v>
       </c>
       <c r="J10">
-        <v>0.5566255987616167</v>
+        <v>0.6205641295617566</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8789963333333333</v>
+        <v>0.8789963333333334</v>
       </c>
       <c r="N10">
         <v>2.636989</v>
       </c>
       <c r="O10">
-        <v>0.2805065733697416</v>
+        <v>0.418953257522125</v>
       </c>
       <c r="P10">
-        <v>0.2805065733697416</v>
+        <v>0.418953257522125</v>
       </c>
       <c r="Q10">
         <v>28.857525217018</v>
@@ -1066,10 +1066,10 @@
         <v>259.717726953162</v>
       </c>
       <c r="S10">
-        <v>0.1561371393585018</v>
+        <v>0.25998736358128</v>
       </c>
       <c r="T10">
-        <v>0.1561371393585017</v>
+        <v>0.2599873635812799</v>
       </c>
     </row>
   </sheetData>
